--- a/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0BC9659-8096-462F-AE10-A339E2577218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D5849C-E868-46D6-B9C2-90749FBC335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F9F15DA-26F9-499F-A669-6A49E755A8C4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A5FFB04-F371-4FE3-B812-E0C9EDDD3E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="379">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,77%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
@@ -98,10 +98,10 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>7,89%</t>
@@ -110,16 +110,16 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>15,07%</t>
+    <t>14,87%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>Viaja en transporte público cuando va acompañado de otra persona</t>
@@ -128,28 +128,28 @@
     <t>11,73%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
@@ -158,28 +158,28 @@
     <t>8,14%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -188,28 +188,28 @@
     <t>74,22%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>53,1%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>62,71%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,952 +221,955 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1581,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6486EB1-6E2A-4AD4-9636-FCAC83CB4AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8139E4-57AB-43A7-ADCE-FA9EB41C0489}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2280,7 +2283,7 @@
         <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>140788</v>
+        <v>140787</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2665,7 +2668,7 @@
         <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2683,13 @@
         <v>2913</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2698,10 +2701,10 @@
         <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2710,13 +2713,13 @@
         <v>5602</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2734,13 @@
         <v>624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2746,13 +2749,13 @@
         <v>1964</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2761,13 +2764,13 @@
         <v>2588</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2785,13 @@
         <v>3419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2797,13 +2800,13 @@
         <v>7786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2812,13 +2815,13 @@
         <v>11204</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2836,13 @@
         <v>67957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>191</v>
@@ -2848,13 +2851,13 @@
         <v>82324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>293</v>
@@ -2863,13 +2866,13 @@
         <v>150281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2928,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2937,13 +2940,13 @@
         <v>597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2952,13 +2955,13 @@
         <v>898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2967,13 +2970,13 @@
         <v>1495</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,7 +2997,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3003,13 +3006,13 @@
         <v>1758</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3018,13 +3021,13 @@
         <v>1758</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3042,13 @@
         <v>529</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3054,13 +3057,13 @@
         <v>4114</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -3069,13 +3072,13 @@
         <v>4643</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3093,13 @@
         <v>7200</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -3105,13 +3108,13 @@
         <v>8475</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -3120,13 +3123,13 @@
         <v>15674</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3144,13 @@
         <v>30006</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
@@ -3248,10 +3251,10 @@
         <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>63</v>
@@ -3260,13 +3263,13 @@
         <v>22678</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -3275,7 +3278,7 @@
         <v>34433</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>234</v>
@@ -3302,7 +3305,7 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3311,13 +3314,13 @@
         <v>3317</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -3326,13 +3329,13 @@
         <v>4592</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3350,13 @@
         <v>416</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3362,13 +3365,13 @@
         <v>308</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3377,13 +3380,13 @@
         <v>724</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3401,13 @@
         <v>1767</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3413,10 +3416,10 @@
         <v>2708</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>253</v>
@@ -3431,10 +3434,10 @@
         <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3452,13 @@
         <v>47970</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H38" s="7">
         <v>96</v>
@@ -3464,13 +3467,13 @@
         <v>40477</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M38" s="7">
         <v>196</v>
@@ -3479,13 +3482,13 @@
         <v>88447</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3544,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3553,10 +3556,10 @@
         <v>10384</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>268</v>
@@ -3586,10 +3589,10 @@
         <v>272</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -3619,7 +3622,7 @@
         <v>7170</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>276</v>
@@ -3640,7 +3643,7 @@
         <v>279</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3658,13 @@
         <v>3138</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3670,13 +3673,13 @@
         <v>6754</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -3685,10 +3688,10 @@
         <v>9893</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>286</v>
@@ -3709,10 +3712,10 @@
         <v>287</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
@@ -3721,13 +3724,13 @@
         <v>3624</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -3736,13 +3739,13 @@
         <v>6034</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3760,13 @@
         <v>114908</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>175</v>
@@ -3772,13 +3775,13 @@
         <v>215442</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>325</v>
@@ -3787,13 +3790,13 @@
         <v>330350</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,7 +3852,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3861,13 +3864,13 @@
         <v>2279</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -3876,13 +3879,13 @@
         <v>6710</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -3891,13 +3894,13 @@
         <v>8988</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3915,13 @@
         <v>695</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -3927,13 +3930,13 @@
         <v>2779</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3942,13 +3945,13 @@
         <v>3474</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3972,7 @@
         <v>318</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H48" s="7">
         <v>26</v>
@@ -3978,13 +3981,13 @@
         <v>17202</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M48" s="7">
         <v>31</v>
@@ -3993,13 +3996,13 @@
         <v>20691</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4017,13 @@
         <v>8260</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H49" s="7">
         <v>47</v>
@@ -4029,13 +4032,13 @@
         <v>32465</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M49" s="7">
         <v>58</v>
@@ -4044,10 +4047,10 @@
         <v>40724</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>331</v>
@@ -4202,10 +4205,10 @@
         <v>347</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4223,13 @@
         <v>12386</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H53" s="7">
         <v>59</v>
@@ -4235,10 +4238,10 @@
         <v>33769</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>353</v>
@@ -4250,7 +4253,7 @@
         <v>46155</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>354</v>
@@ -4271,13 +4274,13 @@
         <v>24072</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>356</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="H54" s="7">
         <v>125</v>
@@ -4286,13 +4289,13 @@
         <v>72661</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="M54" s="7">
         <v>159</v>
@@ -4301,13 +4304,13 @@
         <v>96733</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4325,13 @@
         <v>31672</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="H55" s="7">
         <v>153</v>
@@ -4340,10 +4343,10 @@
         <v>39</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M55" s="7">
         <v>201</v>
@@ -4352,13 +4355,13 @@
         <v>115082</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4376,13 @@
         <v>587754</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H56" s="7">
         <v>1173</v>
@@ -4388,13 +4391,13 @@
         <v>736523</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M56" s="7">
         <v>2033</v>
@@ -4403,13 +4406,13 @@
         <v>1324276</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,7 +4468,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D5849C-E868-46D6-B9C2-90749FBC335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09E54B2-F8C2-4137-85BB-B4720748F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A5FFB04-F371-4FE3-B812-E0C9EDDD3E5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E581E38-2FCB-46AF-A558-B49B08B199CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8139E4-57AB-43A7-ADCE-FA9EB41C0489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992ADFDF-E8A6-4A78-89F8-32803C1136E5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09E54B2-F8C2-4137-85BB-B4720748F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B857D6-4921-4E25-899E-B4B7C252F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E581E38-2FCB-46AF-A558-B49B08B199CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2C04056-9099-4445-8804-882904A7AB85}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="378">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>5,77%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
@@ -98,10 +98,10 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>7,89%</t>
@@ -110,1066 +110,1063 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>14,87%</t>
+    <t>15,07%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1584,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992ADFDF-E8A6-4A78-89F8-32803C1136E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DA9D0E-3F5F-423C-BBB9-7599F7EF0167}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2283,7 +2280,7 @@
         <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>140787</v>
+        <v>140788</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2668,7 +2665,7 @@
         <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2680,13 @@
         <v>2913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2701,10 +2698,10 @@
         <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2713,13 +2710,13 @@
         <v>5602</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2731,13 @@
         <v>624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2749,13 +2746,13 @@
         <v>1964</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2764,13 +2761,13 @@
         <v>2588</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2782,13 @@
         <v>3419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2800,13 +2797,13 @@
         <v>7786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2815,13 +2812,13 @@
         <v>11204</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2833,13 @@
         <v>67957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>191</v>
@@ -2851,13 +2848,13 @@
         <v>82324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>293</v>
@@ -2866,13 +2863,13 @@
         <v>150281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2925,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2940,13 +2937,13 @@
         <v>597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2955,13 +2952,13 @@
         <v>898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2970,13 +2967,13 @@
         <v>1495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3006,13 +3003,13 @@
         <v>1758</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3021,13 +3018,13 @@
         <v>1758</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3039,13 @@
         <v>529</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3057,13 +3054,13 @@
         <v>4114</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -3072,13 +3069,13 @@
         <v>4643</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3090,13 @@
         <v>7200</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -3108,13 +3105,13 @@
         <v>8475</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -3123,13 +3120,13 @@
         <v>15674</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3141,13 @@
         <v>30006</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
@@ -3251,10 +3248,10 @@
         <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>63</v>
@@ -3263,13 +3260,13 @@
         <v>22678</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -3278,7 +3275,7 @@
         <v>34433</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>234</v>
@@ -3305,7 +3302,7 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3314,13 +3311,13 @@
         <v>3317</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -3329,13 +3326,13 @@
         <v>4592</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3347,13 @@
         <v>416</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3365,13 +3362,13 @@
         <v>308</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3380,13 +3377,13 @@
         <v>724</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3398,13 @@
         <v>1767</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3416,10 +3413,10 @@
         <v>2708</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>253</v>
@@ -3434,10 +3431,10 @@
         <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3449,13 @@
         <v>47970</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H38" s="7">
         <v>96</v>
@@ -3467,13 +3464,13 @@
         <v>40477</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M38" s="7">
         <v>196</v>
@@ -3482,13 +3479,13 @@
         <v>88447</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3541,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3556,10 +3553,10 @@
         <v>10384</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>268</v>
@@ -3589,10 +3586,10 @@
         <v>272</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -3622,7 +3619,7 @@
         <v>7170</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>276</v>
@@ -3643,7 +3640,7 @@
         <v>279</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3655,13 @@
         <v>3138</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3673,13 +3670,13 @@
         <v>6754</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -3688,10 +3685,10 @@
         <v>9893</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>286</v>
@@ -3712,10 +3709,10 @@
         <v>287</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
@@ -3724,13 +3721,13 @@
         <v>3624</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -3739,13 +3736,13 @@
         <v>6034</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3757,13 @@
         <v>114908</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H44" s="7">
         <v>175</v>
@@ -3775,13 +3772,13 @@
         <v>215442</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M44" s="7">
         <v>325</v>
@@ -3790,13 +3787,13 @@
         <v>330350</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,7 +3849,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3864,13 +3861,13 @@
         <v>2279</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -3879,13 +3876,13 @@
         <v>6710</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -3894,13 +3891,13 @@
         <v>8988</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3912,13 @@
         <v>695</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -3930,13 +3927,13 @@
         <v>2779</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3945,13 +3942,13 @@
         <v>3474</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3969,7 @@
         <v>318</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H48" s="7">
         <v>26</v>
@@ -3981,13 +3978,13 @@
         <v>17202</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M48" s="7">
         <v>31</v>
@@ -3996,13 +3993,13 @@
         <v>20691</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4014,13 @@
         <v>8260</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H49" s="7">
         <v>47</v>
@@ -4032,13 +4029,13 @@
         <v>32465</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M49" s="7">
         <v>58</v>
@@ -4047,10 +4044,10 @@
         <v>40724</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>331</v>
@@ -4205,10 +4202,10 @@
         <v>347</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4220,13 @@
         <v>12386</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H53" s="7">
         <v>59</v>
@@ -4238,10 +4235,10 @@
         <v>33769</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>352</v>
+        <v>68</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>353</v>
@@ -4253,7 +4250,7 @@
         <v>46155</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>354</v>
@@ -4274,13 +4271,13 @@
         <v>24072</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>356</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>357</v>
+        <v>15</v>
       </c>
       <c r="H54" s="7">
         <v>125</v>
@@ -4289,13 +4286,13 @@
         <v>72661</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M54" s="7">
         <v>159</v>
@@ -4304,13 +4301,13 @@
         <v>96733</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4322,13 @@
         <v>31672</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H55" s="7">
         <v>153</v>
@@ -4343,10 +4340,10 @@
         <v>39</v>
       </c>
       <c r="K55" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M55" s="7">
         <v>201</v>
@@ -4355,13 +4352,13 @@
         <v>115082</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P55" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="Q55" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4373,13 @@
         <v>587754</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H56" s="7">
         <v>1173</v>
@@ -4391,13 +4388,13 @@
         <v>736523</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M56" s="7">
         <v>2033</v>
@@ -4406,13 +4403,13 @@
         <v>1324276</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,7 +4465,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B857D6-4921-4E25-899E-B4B7C252F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6B200D-5B9D-4F3E-BB79-04F073C5A991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2C04056-9099-4445-8804-882904A7AB85}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53802484-0C35-4663-996E-C5A7AA5423C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="388">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -80,1093 +80,1123 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1581,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DA9D0E-3F5F-423C-BBB9-7599F7EF0167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE493FC-6A11-446A-A383-F68DFB9BF3F3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1717,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1732,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1753,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3069</v>
+        <v>3286</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1768,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>4910</v>
+        <v>4949</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1783,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>7979</v>
+        <v>8235</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1804,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>6092</v>
+        <v>6421</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1819,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>13573</v>
+        <v>13729</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1834,7 +1864,7 @@
         <v>37</v>
       </c>
       <c r="N6" s="7">
-        <v>19665</v>
+        <v>20150</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1855,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>4225</v>
+        <v>4522</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1870,7 +1900,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>9656</v>
+        <v>9814</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -1885,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>13880</v>
+        <v>14336</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -1906,7 +1936,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="7">
-        <v>38535</v>
+        <v>41672</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1921,7 +1951,7 @@
         <v>73</v>
       </c>
       <c r="I8" s="7">
-        <v>33040</v>
+        <v>33885</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -1936,7 +1966,7 @@
         <v>137</v>
       </c>
       <c r="N8" s="7">
-        <v>71575</v>
+        <v>75557</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -1957,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -1972,7 +2002,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -1987,7 +2017,7 @@
         <v>215</v>
       </c>
       <c r="N9" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -2010,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>941</v>
+        <v>864</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2025,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>11385</v>
+        <v>10086</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -2040,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>12326</v>
+        <v>10951</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -2061,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1891</v>
+        <v>1731</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -2076,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>6042</v>
+        <v>5427</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>70</v>
@@ -2091,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>7933</v>
+        <v>7158</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>73</v>
@@ -2112,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>5395</v>
+        <v>5054</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>76</v>
@@ -2127,7 +2157,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>22677</v>
+        <v>20387</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>79</v>
@@ -2142,7 +2172,7 @@
         <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>28072</v>
+        <v>25441</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>82</v>
@@ -2163,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2076</v>
+        <v>1899</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -2178,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>8651</v>
+        <v>7863</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>87</v>
@@ -2193,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>10727</v>
+        <v>9761</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>90</v>
@@ -2214,7 +2244,7 @@
         <v>83</v>
       </c>
       <c r="D14" s="7">
-        <v>75055</v>
+        <v>70302</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>93</v>
@@ -2229,7 +2259,7 @@
         <v>148</v>
       </c>
       <c r="I14" s="7">
-        <v>92033</v>
+        <v>84701</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>96</v>
@@ -2244,7 +2274,7 @@
         <v>231</v>
       </c>
       <c r="N14" s="7">
-        <v>167088</v>
+        <v>155004</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>99</v>
@@ -2265,7 +2295,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="7">
-        <v>85358</v>
+        <v>79850</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -2280,7 +2310,7 @@
         <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>140788</v>
+        <v>128464</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2295,7 +2325,7 @@
         <v>316</v>
       </c>
       <c r="N15" s="7">
-        <v>226146</v>
+        <v>208315</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -2318,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>10233</v>
+        <v>9549</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>103</v>
@@ -2333,7 +2363,7 @@
         <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>14650</v>
+        <v>13343</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>106</v>
@@ -2348,7 +2378,7 @@
         <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>24884</v>
+        <v>22892</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>109</v>
@@ -2369,46 +2399,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2544</v>
+        <v>2398</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>5104</v>
+        <v>4706</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>7647</v>
+        <v>7104</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,46 +2450,46 @@
         <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>4389</v>
+        <v>4136</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>6069</v>
+        <v>5551</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>10457</v>
+        <v>9687</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,46 +2501,46 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>2316</v>
+        <v>2190</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>10046</v>
+        <v>9012</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>12362</v>
+        <v>11201</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,46 +2552,46 @@
         <v>91</v>
       </c>
       <c r="D20" s="7">
-        <v>58119</v>
+        <v>55217</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
       </c>
       <c r="I20" s="7">
-        <v>59083</v>
+        <v>54813</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
       </c>
       <c r="N20" s="7">
-        <v>117201</v>
+        <v>110031</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,7 +2603,7 @@
         <v>122</v>
       </c>
       <c r="D21" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -2588,7 +2618,7 @@
         <v>169</v>
       </c>
       <c r="I21" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2603,7 +2633,7 @@
         <v>291</v>
       </c>
       <c r="N21" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2617,7 +2647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2626,46 +2656,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>3893</v>
+        <v>3666</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>15692</v>
+        <v>14625</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
       </c>
       <c r="N22" s="7">
-        <v>19585</v>
+        <v>18291</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,46 +2707,46 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>2913</v>
+        <v>2727</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>2689</v>
+        <v>2506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>5602</v>
+        <v>5233</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,46 +2758,46 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>1964</v>
+        <v>1858</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>2588</v>
+        <v>2448</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,46 +2809,46 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>3419</v>
+        <v>3222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>7786</v>
+        <v>7310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>11204</v>
+        <v>10533</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,46 +2860,46 @@
         <v>102</v>
       </c>
       <c r="D26" s="7">
-        <v>67957</v>
+        <v>64463</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>191</v>
       </c>
       <c r="I26" s="7">
-        <v>82324</v>
+        <v>77337</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>293</v>
       </c>
       <c r="N26" s="7">
-        <v>150281</v>
+        <v>141799</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2911,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -2896,7 +2926,7 @@
         <v>256</v>
       </c>
       <c r="I27" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -2911,7 +2941,7 @@
         <v>374</v>
       </c>
       <c r="N27" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2925,7 +2955,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2934,37 +2964,37 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>597</v>
+        <v>532</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>898</v>
+        <v>796</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1495</v>
+        <v>1328</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>194</v>
@@ -3000,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>1758</v>
+        <v>1561</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>198</v>
@@ -3015,7 +3045,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>1758</v>
+        <v>1561</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>201</v>
@@ -3024,7 +3054,7 @@
         <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,46 +3066,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>4114</v>
+        <v>3631</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>4643</v>
+        <v>4107</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,46 +3117,46 @@
         <v>13</v>
       </c>
       <c r="D31" s="7">
-        <v>7200</v>
+        <v>6493</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
       </c>
       <c r="I31" s="7">
-        <v>8475</v>
+        <v>7599</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
       </c>
       <c r="N31" s="7">
-        <v>15674</v>
+        <v>14092</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,46 +3168,46 @@
         <v>56</v>
       </c>
       <c r="D32" s="7">
-        <v>30006</v>
+        <v>27315</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
       </c>
       <c r="I32" s="7">
-        <v>50236</v>
+        <v>45660</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>185</v>
       </c>
       <c r="N32" s="7">
-        <v>80242</v>
+        <v>72974</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3219,7 @@
         <v>71</v>
       </c>
       <c r="D33" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -3204,7 +3234,7 @@
         <v>165</v>
       </c>
       <c r="I33" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -3219,7 +3249,7 @@
         <v>236</v>
       </c>
       <c r="N33" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -3233,7 +3263,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3242,13 +3272,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="7">
-        <v>11756</v>
+        <v>11204</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>229</v>
@@ -3257,7 +3287,7 @@
         <v>63</v>
       </c>
       <c r="I34" s="7">
-        <v>22678</v>
+        <v>21208</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>230</v>
@@ -3272,7 +3302,7 @@
         <v>90</v>
       </c>
       <c r="N34" s="7">
-        <v>34433</v>
+        <v>32412</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>233</v>
@@ -3293,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>1275</v>
+        <v>1217</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>236</v>
@@ -3302,37 +3332,37 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
       </c>
       <c r="I35" s="7">
-        <v>3317</v>
+        <v>3124</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>4592</v>
+        <v>4341</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,46 +3374,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>724</v>
+        <v>683</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,46 +3425,46 @@
         <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>1767</v>
+        <v>1680</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>2708</v>
+        <v>2527</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>4475</v>
+        <v>4207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,46 +3476,46 @@
         <v>100</v>
       </c>
       <c r="D38" s="7">
-        <v>47970</v>
+        <v>45762</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H38" s="7">
         <v>96</v>
       </c>
       <c r="I38" s="7">
-        <v>40477</v>
+        <v>37771</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7">
         <v>196</v>
       </c>
       <c r="N38" s="7">
-        <v>88447</v>
+        <v>83533</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3527,7 @@
         <v>135</v>
       </c>
       <c r="D39" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3512,7 +3542,7 @@
         <v>176</v>
       </c>
       <c r="I39" s="7">
-        <v>69488</v>
+        <v>64915</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -3527,7 +3557,7 @@
         <v>311</v>
       </c>
       <c r="N39" s="7">
-        <v>132671</v>
+        <v>125176</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -3541,7 +3571,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3550,46 +3580,46 @@
         <v>11</v>
       </c>
       <c r="D40" s="7">
-        <v>10384</v>
+        <v>9525</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>38</v>
       </c>
       <c r="I40" s="7">
-        <v>24735</v>
+        <v>22191</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>49</v>
       </c>
       <c r="N40" s="7">
-        <v>35119</v>
+        <v>31716</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,37 +3640,37 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
       </c>
       <c r="I41" s="7">
-        <v>7170</v>
+        <v>5843</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
       </c>
       <c r="N41" s="7">
-        <v>7170</v>
+        <v>5843</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,46 +3682,46 @@
         <v>4</v>
       </c>
       <c r="D42" s="7">
-        <v>3138</v>
+        <v>3013</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
       </c>
       <c r="I42" s="7">
-        <v>6754</v>
+        <v>6086</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
       </c>
       <c r="N42" s="7">
-        <v>9893</v>
+        <v>9098</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,46 +3733,46 @@
         <v>3</v>
       </c>
       <c r="D43" s="7">
-        <v>2410</v>
+        <v>2209</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
       </c>
       <c r="I43" s="7">
-        <v>3624</v>
+        <v>3367</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
       </c>
       <c r="N43" s="7">
-        <v>6034</v>
+        <v>5576</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,46 +3784,46 @@
         <v>150</v>
       </c>
       <c r="D44" s="7">
-        <v>114908</v>
+        <v>108507</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>175</v>
       </c>
       <c r="I44" s="7">
-        <v>215442</v>
+        <v>300665</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>325</v>
       </c>
       <c r="N44" s="7">
-        <v>330350</v>
+        <v>409172</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,7 +3835,7 @@
         <v>168</v>
       </c>
       <c r="D45" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>58</v>
@@ -3820,7 +3850,7 @@
         <v>240</v>
       </c>
       <c r="I45" s="7">
-        <v>257726</v>
+        <v>338151</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>58</v>
@@ -3835,7 +3865,7 @@
         <v>408</v>
       </c>
       <c r="N45" s="7">
-        <v>388566</v>
+        <v>461405</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>58</v>
@@ -3849,7 +3879,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3858,46 +3888,46 @@
         <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>2279</v>
+        <v>1992</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
       </c>
       <c r="I46" s="7">
-        <v>6710</v>
+        <v>5414</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
       </c>
       <c r="N46" s="7">
-        <v>8988</v>
+        <v>7406</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,46 +3939,46 @@
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>695</v>
+        <v>593</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
       </c>
       <c r="I47" s="7">
-        <v>2779</v>
+        <v>2245</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
       </c>
       <c r="N47" s="7">
-        <v>3474</v>
+        <v>2838</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,46 +3990,46 @@
         <v>5</v>
       </c>
       <c r="D48" s="7">
-        <v>3489</v>
+        <v>3015</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H48" s="7">
         <v>26</v>
       </c>
       <c r="I48" s="7">
-        <v>17202</v>
+        <v>14360</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M48" s="7">
         <v>31</v>
       </c>
       <c r="N48" s="7">
-        <v>20691</v>
+        <v>17375</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,46 +4041,46 @@
         <v>11</v>
       </c>
       <c r="D49" s="7">
-        <v>8260</v>
+        <v>6978</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H49" s="7">
         <v>47</v>
       </c>
       <c r="I49" s="7">
-        <v>32465</v>
+        <v>25973</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M49" s="7">
         <v>58</v>
       </c>
       <c r="N49" s="7">
-        <v>40724</v>
+        <v>32951</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,46 +4092,46 @@
         <v>214</v>
       </c>
       <c r="D50" s="7">
-        <v>155205</v>
+        <v>134501</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H50" s="7">
         <v>257</v>
       </c>
       <c r="I50" s="7">
-        <v>163887</v>
+        <v>138650</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M50" s="7">
         <v>471</v>
       </c>
       <c r="N50" s="7">
-        <v>319092</v>
+        <v>273152</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,7 +4143,7 @@
         <v>235</v>
       </c>
       <c r="D51" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>58</v>
@@ -4128,7 +4158,7 @@
         <v>343</v>
       </c>
       <c r="I51" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>58</v>
@@ -4143,7 +4173,7 @@
         <v>578</v>
       </c>
       <c r="N51" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>58</v>
@@ -4166,46 +4196,46 @@
         <v>66</v>
       </c>
       <c r="D52" s="7">
-        <v>40082</v>
+        <v>37333</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H52" s="7">
         <v>193</v>
       </c>
       <c r="I52" s="7">
-        <v>97787</v>
+        <v>88694</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M52" s="7">
         <v>259</v>
       </c>
       <c r="N52" s="7">
-        <v>137870</v>
+        <v>126027</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,46 +4247,46 @@
         <v>18</v>
       </c>
       <c r="D53" s="7">
-        <v>12386</v>
+        <v>11952</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>168</v>
+        <v>356</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H53" s="7">
         <v>59</v>
       </c>
       <c r="I53" s="7">
-        <v>33769</v>
+        <v>30360</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>68</v>
+        <v>360</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="M53" s="7">
         <v>77</v>
       </c>
       <c r="N53" s="7">
-        <v>46155</v>
+        <v>42312</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>198</v>
+        <v>331</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,46 +4298,46 @@
         <v>34</v>
       </c>
       <c r="D54" s="7">
-        <v>24072</v>
+        <v>23102</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="H54" s="7">
         <v>125</v>
       </c>
       <c r="I54" s="7">
-        <v>72661</v>
+        <v>65888</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>149</v>
+        <v>365</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M54" s="7">
         <v>159</v>
       </c>
       <c r="N54" s="7">
-        <v>96733</v>
+        <v>88990</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,46 +4349,46 @@
         <v>48</v>
       </c>
       <c r="D55" s="7">
-        <v>31672</v>
+        <v>29194</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H55" s="7">
         <v>153</v>
       </c>
       <c r="I55" s="7">
-        <v>83410</v>
+        <v>73464</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M55" s="7">
         <v>201</v>
       </c>
       <c r="N55" s="7">
-        <v>115082</v>
+        <v>102658</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>367</v>
+        <v>178</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,46 +4400,46 @@
         <v>860</v>
       </c>
       <c r="D56" s="7">
-        <v>587754</v>
+        <v>547740</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H56" s="7">
         <v>1173</v>
       </c>
       <c r="I56" s="7">
-        <v>736523</v>
+        <v>773482</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M56" s="7">
         <v>2033</v>
       </c>
       <c r="N56" s="7">
-        <v>1324276</v>
+        <v>1321222</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4451,7 @@
         <v>1026</v>
       </c>
       <c r="D57" s="7">
-        <v>695966</v>
+        <v>649320</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -4436,7 +4466,7 @@
         <v>1703</v>
       </c>
       <c r="I57" s="7">
-        <v>1024150</v>
+        <v>1031889</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>58</v>
@@ -4451,7 +4481,7 @@
         <v>2729</v>
       </c>
       <c r="N57" s="7">
-        <v>1720116</v>
+        <v>1681209</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -4465,7 +4495,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
